--- a/data/douradonis/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/data/douradonis/exports/802576637_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>ARTID</t>
   </si>
@@ -71,12 +71,27 @@
     <t>094439854</t>
   </si>
   <si>
+    <t>ΑΦΟΙ ΛΑΓΟΥ ΧΡΩΜΑΤΑ ΙΚΕ</t>
+  </si>
+  <si>
+    <t>ΕΜΠΗΛΕΧ ΜΟΝΟΠΡΟΣΩΠΗ ΕΠΕ ΗΛΕΚΤΡΟΛΟΓΙΚΩΝ ΕΙΔΩΝ</t>
+  </si>
+  <si>
     <t>ΑΛΠ 8350</t>
   </si>
   <si>
+    <t>TΔA 60939</t>
+  </si>
+  <si>
+    <t>00ΤΔΓ 4885</t>
+  </si>
+  <si>
     <t>64-0000</t>
   </si>
   <si>
+    <t>20-1287</t>
+  </si>
+  <si>
     <t>50-0000</t>
   </si>
   <si>
@@ -90,6 +105,12 @@
   </si>
   <si>
     <t>000000000</t>
+  </si>
+  <si>
+    <t>095736139</t>
+  </si>
+  <si>
+    <t>800916954</t>
   </si>
   <si>
     <t>ΠΡΟΜΗΘΕΥΤΕΣ ΔΑΠΑΝΩΝ</t>
@@ -457,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,13 +573,13 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3">
         <v>3.5</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -576,10 +597,116 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14460</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45971</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3">
+        <v>33.06</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>33.06</v>
+      </c>
+      <c r="M3" s="3">
+        <v>33.06</v>
+      </c>
+      <c r="N3" s="3">
+        <v>7.93</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13522</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45971</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3">
+        <v>82.27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>82.27</v>
+      </c>
+      <c r="M4" s="3">
+        <v>82.27</v>
+      </c>
+      <c r="N4" s="3">
+        <v>19.74</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -602,13 +729,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -616,10 +743,32 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>13522</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>14460</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
